--- a/biology/Zoologie/Anomalipes/Anomalipes.xlsx
+++ b/biology/Zoologie/Anomalipes/Anomalipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomalipes zhaoi
-Anomalipes (signifiant « le pied inhabituel de Zhao Xijin ») est un genre éteint de dinosaures Caenagnathidae découvert dans le groupe de Wangshi de l'ère Campanienne (fin du Crétacé) en Chine. Le type et seule espèce connue est Anomalipes zhaoi[1].
+Anomalipes (signifiant « le pied inhabituel de Zhao Xijin ») est un genre éteint de dinosaures Caenagnathidae découvert dans le groupe de Wangshi de l'ère Campanienne (fin du Crétacé) en Chine. Le type et seule espèce connue est Anomalipes zhaoi.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les restes de Anomalipes ont été découverts dans un lit d'os de Shantungosaurus dans la localité de Kugou. L'holotype (ZCDM V0020, conservé au Zhucheng Dinosaur Museum, Zhucheng, Shandong) est un membre postérieur gauche incomplet, comprenant une partie de la cuisse, du tibia et du jarret gauches, un métatarse III complet, deux griffes et deux os d'orteil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les restes de Anomalipes ont été découverts dans un lit d'os de Shantungosaurus dans la localité de Kugou. L'holotype (ZCDM V0020, conservé au Zhucheng Dinosaur Museum, Zhucheng, Shandong) est un membre postérieur gauche incomplet, comprenant une partie de la cuisse, du tibia et du jarret gauches, un métatarse III complet, deux griffes et deux os d'orteil.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anomalipes est dérivé du latin anomalus (particulier, anormal, difficilement classable) et pes (pied), en référence à la forme inhabituelle de son pied. L'épithète de l'espèce, zhaoi, a été nommée en l'honneur du paléontologue chinois Zhao Xijin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anomalipes est dérivé du latin anomalus (particulier, anormal, difficilement classable) et pes (pied), en référence à la forme inhabituelle de son pied. L'épithète de l'espèce, zhaoi, a été nommée en l'honneur du paléontologue chinois Zhao Xijin.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anomalipes a été classé parmi les Theropoda dans l'infra-ordre Oviraptorosauria et la famille Caenagnathidae[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anomalipes a été classé parmi les Theropoda dans l'infra-ordre Oviraptorosauria et la famille Caenagnathidae,.
 </t>
         </is>
       </c>
